--- a/data/trans_dic/P1806_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,68</t>
+          <t>0,32; 2,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,72</t>
+          <t>0,23; 1,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,8</t>
+          <t>0,39; 1,76</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,43</t>
+          <t>0,79; 3,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,68</t>
+          <t>3,2; 6,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 4,57</t>
+          <t>2,48; 4,67</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 5,73</t>
+          <t>1,97; 5,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,49; 12,31</t>
+          <t>7,38; 12,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,33; 8,41</t>
+          <t>5,5; 8,68</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,38</t>
+          <t>1,77; 5,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,0</t>
+          <t>3,87; 7,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 5,92</t>
+          <t>3,33; 5,98</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,59</t>
+          <t>1,04; 4,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,38</t>
+          <t>2,18; 5,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,27</t>
+          <t>1,96; 4,4</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,61</t>
+          <t>1,62; 6,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,77; 8,65</t>
+          <t>3,74; 8,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,14; 6,59</t>
+          <t>3,11; 6,47</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,88</t>
+          <t>3,0; 6,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,38; 10,89</t>
+          <t>5,31; 11,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,03; 8,37</t>
+          <t>4,95; 8,23</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,64</t>
+          <t>0,35; 1,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,99</t>
+          <t>1,36; 2,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,03</t>
+          <t>1,04; 2,13</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,96; 3,1</t>
+          <t>1,96; 3,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,47; 5,83</t>
+          <t>4,5; 5,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">

--- a/data/trans_dic/P1806_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,87</t>
+          <t>0,25; 2,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,68</t>
+          <t>0,24; 1,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,76</t>
+          <t>0,38; 1,8</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,48</t>
+          <t>0,8; 3,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,56</t>
+          <t>3,24; 6,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,67</t>
+          <t>2,45; 4,57</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 5,8</t>
+          <t>1,98; 5,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,38; 12,35</t>
+          <t>7,49; 12,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,68</t>
+          <t>5,33; 8,41</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 5,89</t>
+          <t>1,79; 6,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,26</t>
+          <t>3,73; 7,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 5,98</t>
+          <t>3,27; 5,92</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,55</t>
+          <t>0,95; 4,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,39</t>
+          <t>2,12; 5,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,4</t>
+          <t>1,98; 4,27</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,64</t>
+          <t>1,67; 6,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,74; 8,72</t>
+          <t>3,77; 8,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,47</t>
+          <t>3,14; 6,59</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,0; 6,74</t>
+          <t>2,97; 6,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,31; 11,03</t>
+          <t>5,38; 10,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,95; 8,23</t>
+          <t>5,03; 8,37</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,67</t>
+          <t>0,36; 1,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,94</t>
+          <t>1,31; 2,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,13</t>
+          <t>0,97; 2,03</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,96; 3,02</t>
+          <t>1,96; 3,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,5; 5,81</t>
+          <t>4,47; 5,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">

--- a/data/trans_dic/P1806_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,86%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,68</t>
+          <t>0,23; 2,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,72</t>
+          <t>0,23; 1,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,8</t>
+          <t>0,36; 1,81</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,43</t>
+          <t>0,77; 3,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,68</t>
+          <t>3,2; 6,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 4,57</t>
+          <t>2,35; 4,45</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 5,73</t>
+          <t>1,94; 5,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,49; 12,31</t>
+          <t>7,46; 12,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,33; 8,41</t>
+          <t>5,2; 8,23</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>3,97%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,38</t>
+          <t>1,77; 6,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,0</t>
+          <t>2,52; 6,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 5,92</t>
+          <t>2,62; 5,46</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,95%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,59</t>
+          <t>0,94; 4,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,38</t>
+          <t>2,17; 5,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,27</t>
+          <t>1,99; 4,29</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,43%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,61</t>
+          <t>1,66; 6,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,77; 8,65</t>
+          <t>3,73; 8,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,14; 6,59</t>
+          <t>3,08; 6,5</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>6,07%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,88</t>
+          <t>2,86; 6,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,38; 10,89</t>
+          <t>3,45; 10,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,03; 8,37</t>
+          <t>3,54; 7,72</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,28%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,64</t>
+          <t>0,18; 1,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,99</t>
+          <t>1,32; 3,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,03</t>
+          <t>0,74; 1,9</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,64%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,96; 3,1</t>
+          <t>1,77; 2,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,47; 5,83</t>
+          <t>4,02; 5,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,45; 4,32</t>
+          <t>3,09; 4,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P1806_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,61</t>
+          <t>0,29; 3,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,65</t>
+          <t>0,23; 1,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,81</t>
+          <t>0,36; 1,84</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,3</t>
+          <t>0,78; 3,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,58</t>
+          <t>3,5; 6,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,45</t>
+          <t>2,23; 4,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 5,64</t>
+          <t>2,08; 5,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 12,21</t>
+          <t>7,24; 12,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,2; 8,23</t>
+          <t>5,25; 8,48</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 6,56</t>
+          <t>1,79; 6,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,1</t>
+          <t>2,58; 6,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,46</t>
+          <t>2,71; 5,6</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,56</t>
+          <t>0,92; 4,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,48</t>
+          <t>2,2; 5,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,29</t>
+          <t>1,95; 4,23</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,69</t>
+          <t>1,6; 6,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,73; 8,49</t>
+          <t>3,87; 8,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,08; 6,5</t>
+          <t>3,14; 6,32</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,72</t>
+          <t>2,99; 6,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,45; 10,4</t>
+          <t>3,39; 10,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,54; 7,72</t>
+          <t>3,87; 7,64</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,37</t>
+          <t>0,21; 1,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,01</t>
+          <t>1,34; 3,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,74; 1,9</t>
+          <t>0,66; 1,79</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,98</t>
+          <t>1,74; 2,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,02; 5,63</t>
+          <t>3,98; 5,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,09; 4,1</t>
+          <t>3,15; 4,16</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población según si en los últimos 12 meses han visitado un podólogo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3314</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1834</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5149</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>888; 9475</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>663; 4579</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2156; 11073</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8906</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24485</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>33391</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4038; 17366</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17982; 33906</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>23045; 45351</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10800</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>33132</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>43932</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6566; 18114</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>25282; 42098</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>34950; 56427</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9915</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>21377</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>31292</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5602; 19480</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12296; 30694</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>21393; 44145</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3995</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7421</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11416</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1638; 7802</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4590; 11501</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7565; 16368</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8974</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>14340</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>23314</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4318; 18701</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>9936; 22550</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>16549; 33299</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>27795</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>61714</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>89509</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>18694; 42834</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>28805; 86364</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>56990; 112614</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>5928</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>15093</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>21021</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1943; 12890</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>9599; 21863</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>10813; 29518</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>79627</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>179396</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>259023</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>60157; 102574</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>145653; 205827</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>223998; 295999</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>